--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.1/avg_0.004_scores.xlsx
@@ -118,13 +118,13 @@
     <t>join</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>community</t>
   </si>
   <si>
     <t>hand</t>
@@ -1122,25 +1122,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.762114537444934</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L20">
         <v>173</v>
       </c>
       <c r="M20">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1252,25 +1252,25 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.656441717791411</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L25">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="M25">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1278,25 +1278,25 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.6538461538461539</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L26">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1304,25 +1304,25 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.6521739130434783</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="10:17">
